--- a/Schnitzcells_Config_2017_01_12_pos1.xlsx
+++ b/Schnitzcells_Config_2017_01_12_pos1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
   <si>
     <t>FULL ANALYSIS</t>
   </si>
@@ -73,9 +73,6 @@
     <t>neckDepth</t>
   </si>
   <si>
-    <t>schnitzes to be removed from analysis</t>
-  </si>
-  <si>
     <t>autofluorescence</t>
   </si>
   <si>
@@ -91,24 +88,12 @@
     <t>LEGEND</t>
   </si>
   <si>
-    <t>Check this carefully from position to position.</t>
-  </si>
-  <si>
-    <t>Check this carefully for dataset.</t>
-  </si>
-  <si>
-    <t>Important parameter.</t>
-  </si>
-  <si>
     <t>Generally, datasets are identified by the date on which data was taken. The folder with the data should also have this name.</t>
   </si>
   <si>
     <t>Setup1 is the old microscope, Setup2 is the new microscope.</t>
   </si>
   <si>
-    <t>Currently, setup1 has a camera called "hamamatsu", and setup2 has a camera called "hamamatsu2".</t>
-  </si>
-  <si>
     <t>Setup1 uses "metamorph", setup2 uses "micromanager".</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>muWindow</t>
   </si>
   <si>
-    <t># phase images used for mu (odd number!)</t>
-  </si>
-  <si>
     <t>badSchnitzes</t>
   </si>
   <si>
@@ -202,15 +184,6 @@
     <t>fluorCorrectionImagePaths{3}</t>
   </si>
   <si>
-    <t>Correction image for fluor color 1.</t>
-  </si>
-  <si>
-    <t>Correction image for fluor color 2.</t>
-  </si>
-  <si>
-    <t>Correction image for fluor color 3.</t>
-  </si>
-  <si>
     <t>Matlab also reads their names, don't change those either!</t>
   </si>
   <si>
@@ -280,9 +253,6 @@
     <t>PLOTSCATTER</t>
   </si>
   <si>
-    <t xml:space="preserve">fields upon which </t>
-  </si>
-  <si>
     <t>muFieldName</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t>Misc. options</t>
   </si>
   <si>
-    <t>Determines whether delayed scatter plots are made</t>
-  </si>
-  <si>
     <t>timeFieldNameDerivative</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>dX5_cycCor</t>
   </si>
   <si>
-    <t>(X will be automatically replaced by appropriate color)</t>
-  </si>
-  <si>
     <t>G:\EXPERIMENTAL_DATA_2016\a_incoming\</t>
   </si>
   <si>
@@ -412,14 +376,119 @@
     <t>[32:34:1460]</t>
   </si>
   <si>
-    <t>[32:34:916]</t>
+    <t>Currently, setup1 has a camera called "hamamatsu" (previously, before 2014/11 "coolsnap"), and setup2 has a camera called "hamamatsu2".</t>
+  </si>
+  <si>
+    <t>Check this parameter carefully for dataset.</t>
+  </si>
+  <si>
+    <t>Check this parameter carefully from position to position.</t>
+  </si>
+  <si>
+    <t>Check this parameter, which relates to setup, carefully for dataset.</t>
+  </si>
+  <si>
+    <t>Important parameter for analysis, but not necessarily requires changing between dataset.</t>
+  </si>
+  <si>
+    <t>In a typical experiment, there are pictures taken at multiple focal heights, this parameter should enumerate them.</t>
+  </si>
+  <si>
+    <t>See PN_segmoviephase_3colors.m for more information</t>
+  </si>
+  <si>
+    <t>In pixels, the range over which contrast changes are considered.</t>
+  </si>
+  <si>
+    <t>In pixels the amount by which the area identified as colony is dilated (createing a margin to not cut of cells)</t>
+  </si>
+  <si>
+    <t>Sigma parameter for Laplacian of Guassian edge detection.</t>
+  </si>
+  <si>
+    <t>Areas with less pixels than this values are not considered cells.</t>
+  </si>
+  <si>
+    <t>Size and sigma of gaussian smoothing for segementation image.</t>
+  </si>
+  <si>
+    <t>Minimal depth of local minima, used to identify cell centers.</t>
+  </si>
+  <si>
+    <t>Cell that have indentations above neckDepth are cut at these indentations.</t>
+  </si>
+  <si>
+    <t>These parameters relate to analysis that is done after lineage tree is created.</t>
+  </si>
+  <si>
+    <t>Time window in which data is analyzed for global growth rate (mu) estimate.</t>
+  </si>
+  <si>
+    <t>Time window on which the cross correlation functions are based.</t>
+  </si>
+  <si>
+    <t>??Not used??</t>
+  </si>
+  <si>
+    <t># phase images used for fitting of growth rate mu (needs to be odd number!)</t>
+  </si>
+  <si>
+    <t>once analysis is complete, some schnitzes can display weird behavior (artefacts), list here schnitzes to be removed from analysis</t>
+  </si>
+  <si>
+    <t>Correction images for fluor color 1 (loaded from ./Fluor_correction_images/).</t>
+  </si>
+  <si>
+    <t>Correction images for fluor color 2 (loaded from ./Fluor_correction_images/).</t>
+  </si>
+  <si>
+    <t>Correction images for fluor color 3 (loaded from ./Fluor_correction_images/).</t>
+  </si>
+  <si>
+    <t>Point spread function used to correct image during deconvolution</t>
+  </si>
+  <si>
+    <t>ID of the strain used for this experiment</t>
+  </si>
+  <si>
+    <t>short label describing filter set</t>
+  </si>
+  <si>
+    <t>short label describing fluorescent protein used</t>
+  </si>
+  <si>
+    <t>illumination time (only for reference, the actual time is extracted from the fluor images)</t>
+  </si>
+  <si>
+    <t>schnitzcells parameters on which cross correlations will be build (X will be automatically replaced by appropriate color)</t>
+  </si>
+  <si>
+    <t>field that indicates the average fluorescence signal in a (schnitz)cell</t>
+  </si>
+  <si>
+    <t>field that indicates times at which frames were taken</t>
+  </si>
+  <si>
+    <t>field that indicates the time at which frames were taken that correspond to frames for which absolute signal increase was determined</t>
+  </si>
+  <si>
+    <t>field that indicates the parameter which gives the derivative of the absolute fluorescence signal</t>
+  </si>
+  <si>
+    <t>as muFieldName, but frames in this array correspond to frames for which dX parameters are determined.</t>
+  </si>
+  <si>
+    <t>field that indicates the growth rate of a (schnitz)cell, values in this array corresponding to frames for which fluorFieldName parameter was determined</t>
+  </si>
+  <si>
+    <t>Determines whether delayed scatter plots are made during analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,11 +565,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -655,9 +719,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,7 +1054,7 @@
     </row>
     <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="19"/>
@@ -1000,7 +1062,7 @@
     </row>
     <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="19"/>
@@ -1008,7 +1070,7 @@
     </row>
     <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="19"/>
@@ -1016,7 +1078,7 @@
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="19"/>
@@ -1030,7 +1092,7 @@
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="19"/>
@@ -1039,7 +1101,7 @@
     <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="14"/>
@@ -1047,7 +1109,7 @@
     <row r="10" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="14"/>
@@ -1055,7 +1117,7 @@
     <row r="11" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="27" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="14"/>
@@ -1063,7 +1125,7 @@
     <row r="12" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="14"/>
@@ -1082,13 +1144,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,126 +1158,125 @@
         <v>2</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,44 +1284,47 @@
         <v>7</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="25"/>
+      <c r="C32" s="19" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1269,6 +1333,9 @@
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C33" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1277,6 +1344,9 @@
       <c r="B34" s="4">
         <v>35</v>
       </c>
+      <c r="C34" s="19" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1285,6 +1355,9 @@
       <c r="B35" s="4">
         <v>20</v>
       </c>
+      <c r="C35" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1293,6 +1366,9 @@
       <c r="B36" s="4">
         <v>2</v>
       </c>
+      <c r="C36" s="19" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1301,6 +1377,9 @@
       <c r="B37" s="4">
         <v>250</v>
       </c>
+      <c r="C37" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1309,6 +1388,9 @@
       <c r="B38" s="4">
         <v>5</v>
       </c>
+      <c r="C38" s="19" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1317,6 +1399,9 @@
       <c r="B39" s="4">
         <v>5</v>
       </c>
+      <c r="C39" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1325,6 +1410,9 @@
       <c r="B40" s="4">
         <v>2</v>
       </c>
+      <c r="C40" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
@@ -1332,32 +1420,44 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="29"/>
+      <c r="C42" s="19" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>123</v>
+        <v>111</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1366,250 +1466,280 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="15" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B57" s="33"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="37"/>
-      <c r="C61" s="19" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B62" s="30">
         <v>0</v>
       </c>
+      <c r="C62" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B65" s="30">
         <v>150</v>
       </c>
+      <c r="C65" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B67" s="32"/>
+      <c r="C67" s="19" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="35" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B75" s="32"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B76" s="27">
         <v>0</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B78" s="32"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B79" s="27">
         <v>1</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B80" s="27">
         <v>0</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B81" s="27">
         <v>0</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1630,47 +1760,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
